--- a/public/templates/template-excel.xlsx
+++ b/public/templates/template-excel.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28816"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{248A1183-981E-463F-83C5-5BC0E5A4DAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -96,7 +100,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -117,6 +121,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -288,39 +293,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Hyperlink" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -652,90 +657,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.69921875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" style="2"/>
-    <col min="3" max="3" width="20.7109375" style="6"/>
-    <col min="4" max="4" width="20.7109375" style="3"/>
-    <col min="5" max="8" width="20.7109375" style="2"/>
-    <col min="9" max="9" width="20.7109375" style="4"/>
-    <col min="10" max="11" width="20.7109375" style="2"/>
-    <col min="12" max="13" width="20.7109375" style="6"/>
-    <col min="14" max="15" width="20.7109375" style="2"/>
-    <col min="16" max="16" width="20.7109375" style="4"/>
-    <col min="17" max="20" width="20.7109375" style="2"/>
-    <col min="21" max="21" width="20.7109375" style="4"/>
+    <col min="1" max="2" width="20.69921875" style="2"/>
+    <col min="3" max="3" width="20.69921875" style="6"/>
+    <col min="4" max="4" width="20.69921875" style="3"/>
+    <col min="5" max="8" width="20.69921875" style="2"/>
+    <col min="9" max="9" width="20.69921875" style="4"/>
+    <col min="10" max="11" width="20.69921875" style="2"/>
+    <col min="12" max="13" width="20.69921875" style="6"/>
+    <col min="14" max="15" width="20.69921875" style="2"/>
+    <col min="16" max="16" width="20.69921875" style="4"/>
+    <col min="17" max="20" width="20.69921875" style="2"/>
+    <col min="21" max="21" width="20.69921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="30.75">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:27" ht="28.8">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="19" t="s">
         <v>19</v>
       </c>
       <c r="V1" s="13"/>
@@ -753,7 +756,7 @@
       <c r="V2" s="14"/>
       <c r="W2" s="14"/>
       <c r="X2" s="14"/>
-      <c r="Y2" s="15"/>
+      <c r="Y2" s="23"/>
       <c r="Z2" s="14"/>
       <c r="AA2" s="14"/>
     </row>
@@ -765,7 +768,7 @@
       <c r="V3" s="14"/>
       <c r="W3" s="14"/>
       <c r="X3" s="14"/>
-      <c r="Y3" s="15"/>
+      <c r="Y3" s="23"/>
       <c r="Z3" s="14"/>
       <c r="AA3" s="14"/>
     </row>
@@ -777,7 +780,7 @@
       <c r="V4" s="14"/>
       <c r="W4" s="14"/>
       <c r="X4" s="14"/>
-      <c r="Y4" s="15"/>
+      <c r="Y4" s="23"/>
       <c r="Z4" s="14"/>
       <c r="AA4" s="14"/>
     </row>
@@ -789,7 +792,7 @@
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
       <c r="X5" s="14"/>
-      <c r="Y5" s="15"/>
+      <c r="Y5" s="23"/>
       <c r="Z5" s="14"/>
       <c r="AA5" s="14"/>
     </row>
@@ -800,7 +803,7 @@
       <c r="V6" s="14"/>
       <c r="W6" s="14"/>
       <c r="X6" s="14"/>
-      <c r="Y6" s="15"/>
+      <c r="Y6" s="23"/>
       <c r="Z6" s="14"/>
       <c r="AA6" s="14"/>
     </row>
@@ -811,7 +814,7 @@
       <c r="V7" s="14"/>
       <c r="W7" s="14"/>
       <c r="X7" s="14"/>
-      <c r="Y7" s="15"/>
+      <c r="Y7" s="23"/>
       <c r="Z7" s="14"/>
       <c r="AA7" s="14"/>
     </row>
@@ -822,7 +825,7 @@
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
       <c r="X8" s="14"/>
-      <c r="Y8" s="15"/>
+      <c r="Y8" s="23"/>
       <c r="Z8" s="14"/>
       <c r="AA8" s="14"/>
     </row>
@@ -834,7 +837,7 @@
       <c r="V9" s="14"/>
       <c r="W9" s="14"/>
       <c r="X9" s="14"/>
-      <c r="Y9" s="15"/>
+      <c r="Y9" s="23"/>
       <c r="Z9" s="14"/>
       <c r="AA9" s="14"/>
     </row>
@@ -845,7 +848,7 @@
       <c r="V10" s="14"/>
       <c r="W10" s="14"/>
       <c r="X10" s="14"/>
-      <c r="Y10" s="16"/>
+      <c r="Y10" s="24"/>
       <c r="Z10" s="14"/>
       <c r="AA10" s="14"/>
     </row>
@@ -856,7 +859,7 @@
       <c r="V11" s="14"/>
       <c r="W11" s="14"/>
       <c r="X11" s="14"/>
-      <c r="Y11" s="16"/>
+      <c r="Y11" s="24"/>
       <c r="Z11" s="14"/>
       <c r="AA11" s="14"/>
     </row>
@@ -864,7 +867,7 @@
       <c r="V12" s="14"/>
       <c r="W12" s="14"/>
       <c r="X12" s="14"/>
-      <c r="Y12" s="16"/>
+      <c r="Y12" s="24"/>
       <c r="Z12" s="14"/>
       <c r="AA12" s="14"/>
     </row>
@@ -872,7 +875,7 @@
       <c r="V13" s="14"/>
       <c r="W13" s="14"/>
       <c r="X13" s="14"/>
-      <c r="Y13" s="15"/>
+      <c r="Y13" s="23"/>
       <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
     </row>
@@ -881,7 +884,7 @@
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
       <c r="X14" s="14"/>
-      <c r="Y14" s="15"/>
+      <c r="Y14" s="23"/>
       <c r="Z14" s="14"/>
       <c r="AA14" s="14"/>
     </row>
@@ -894,7 +897,7 @@
       <c r="V15" s="14"/>
       <c r="W15" s="14"/>
       <c r="X15" s="14"/>
-      <c r="Y15" s="15"/>
+      <c r="Y15" s="23"/>
       <c r="Z15" s="14"/>
       <c r="AA15" s="14"/>
     </row>
@@ -907,7 +910,7 @@
       <c r="V16" s="14"/>
       <c r="W16" s="14"/>
       <c r="X16" s="14"/>
-      <c r="Y16" s="15"/>
+      <c r="Y16" s="23"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="14"/>
     </row>
@@ -916,7 +919,7 @@
       <c r="V17" s="14"/>
       <c r="W17" s="14"/>
       <c r="X17" s="14"/>
-      <c r="Y17" s="15"/>
+      <c r="Y17" s="23"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="14"/>
     </row>
@@ -929,7 +932,7 @@
       <c r="V18" s="14"/>
       <c r="W18" s="14"/>
       <c r="X18" s="14"/>
-      <c r="Y18" s="15"/>
+      <c r="Y18" s="23"/>
       <c r="Z18" s="14"/>
       <c r="AA18" s="14"/>
     </row>
@@ -938,7 +941,7 @@
       <c r="V19" s="14"/>
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
-      <c r="Y19" s="15"/>
+      <c r="Y19" s="23"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
     </row>
@@ -1018,33 +1021,33 @@
     <mergeCell ref="Y10:Y12"/>
   </mergeCells>
   <dataValidations count="11">
-    <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="El carnet de identidad debe tener mas de 7 digitos" sqref="V1 S1 L1 C1" xr:uid="{BBEE65DE-0ADC-43B0-8B9B-62DB40C3F98F}">
+    <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="El carnet de identidad debe tener mas de 7 digitos" sqref="V1 S1 L1 C1">
       <formula1>7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O14:O33 P49:P1048576 P43:P45 P34:P37 O45 O1:O11" xr:uid="{6A11C7CC-96F5-4E1A-BDEE-CD15EEA35701}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O14:O33 P49:P1048576 P43:P45 P34:P37 O45 O1:O11">
       <formula1>$AA$2:$AA$7</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="El estudiante debe haber nacido despues de 2020" sqref="D14:D37 D43:D45 D49:D1048576 D1:D11" xr:uid="{CB5701E9-676D-4641-8B84-FB6043B97A1F}">
+    <dataValidation type="date" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="El estudiante debe haber nacido despues de 2020" sqref="D14:D37 D43:D45 D49:D1048576 D1:D11">
       <formula1>43831</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="CI duplicado" error="No se permiten CI duplicados" promptTitle="Correo Electronico" sqref="E14:E37 E43:E45 E49:E1048576 E1:E11" xr:uid="{4A0E37A0-6E8F-44E5-BDED-F6381E79E1E6}"/>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M14:M37 M43:M45 M49:M1048576 M2:M11" xr:uid="{AD86BCCD-92E7-47F0-ABB2-699E86472C61}">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="CI duplicado" error="No se permiten CI duplicados" promptTitle="Correo Electronico" sqref="E14:E37 E43:E45 E49:E1048576 E1:E11"/>
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M14:M37 M43:M45 M49:M1048576 M2:M11">
       <formula1>8</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:F37 F43:F45 F49:F1048576 F1:F11" xr:uid="{2B01859B-37EE-43F4-A414-49875F3A4FFA}">
+    <dataValidation type="list" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:F37 F43:F45 F49:F1048576 F1:F11">
       <formula1>"Chuquisaca ,La Paz ,Cochabamba ,Oruro ,Potosí ,Tarija ,Santa Cruz ,Beni ,Pando"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O34:O37 O43:O45 O49:O1048576 O2:O11" xr:uid="{30819BE1-2A1E-41FB-AEB1-25FE82C40BFD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O34:O37 O43:O45 O49:O1048576 O2:O11">
       <formula1>"Madre, Padre, Tutor"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P11" xr:uid="{86A61FC6-F016-4105-A21B-6A55C84A8CE0}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{FE86766E-BDB7-4A94-BB60-586AE74B3613}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P11"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
       <formula1>"3ro de Primaria, 4to de Primaria, 5to de Primaria, 1ro de Secundaria, 2do de Secundaria, 3ro de Secundaria, 4to de Secundaria, 5to de Secundaria, 6to de Secundaria"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="El carnet de identidad debe tener mas de 7 digitos" sqref="L2:L1048576" xr:uid="{74836F22-1F21-47A9-8F0A-093109D4621E}">
+    <dataValidation type="textLength" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="El carnet de identidad debe tener mas de 7 digitos" sqref="L2:L1048576">
       <formula1>7</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576 S2:S1048576" xr:uid="{841C7882-EB65-4DBF-80F1-9A8A208883D9}">
+    <dataValidation type="textLength" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576 S2:S1048576">
       <formula1>7</formula1>
     </dataValidation>
   </dataValidations>

--- a/public/templates/template-excel.xlsx
+++ b/public/templates/template-excel.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>Nombre(s)</t>
   </si>
@@ -52,7 +52,7 @@
     <t>Correo electrónico</t>
   </si>
   <si>
-    <t>Departemanto</t>
+    <t>Departamento</t>
   </si>
   <si>
     <t>Provincia</t>
@@ -95,6 +95,111 @@
   </si>
   <si>
     <t>Correo electrónico profesor</t>
+  </si>
+  <si>
+    <t>Áreas disponibles</t>
+  </si>
+  <si>
+    <t>ASTRONOMÍA - ASTROFÍSICA</t>
+  </si>
+  <si>
+    <t>Guacamayo</t>
+  </si>
+  <si>
+    <t>MATEMÁTICAS</t>
+  </si>
+  <si>
+    <t>QUÍMICA</t>
+  </si>
+  <si>
+    <t>4P</t>
+  </si>
+  <si>
+    <t>BIOLOGÍA</t>
+  </si>
+  <si>
+    <t>1P</t>
+  </si>
+  <si>
+    <t>2P</t>
+  </si>
+  <si>
+    <t>ROBÓTICA</t>
+  </si>
+  <si>
+    <t>2S</t>
+  </si>
+  <si>
+    <t>3P</t>
+  </si>
+  <si>
+    <t>INFORMÁTICA</t>
+  </si>
+  <si>
+    <t>5P</t>
+  </si>
+  <si>
+    <t>6P</t>
+  </si>
+  <si>
+    <t>3S</t>
+  </si>
+  <si>
+    <t>1S</t>
+  </si>
+  <si>
+    <t>4S</t>
+  </si>
+  <si>
+    <t>5S</t>
+  </si>
+  <si>
+    <t>6S</t>
+  </si>
+  <si>
+    <t>Guanaco</t>
+  </si>
+  <si>
+    <t>Londra</t>
+  </si>
+  <si>
+    <t>Jucumari</t>
+  </si>
+  <si>
+    <t>Bufeo</t>
+  </si>
+  <si>
+    <t>Puma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primer Nivel </t>
+  </si>
+  <si>
+    <t>Segundo Nivel</t>
+  </si>
+  <si>
+    <t>Tercer Nivel</t>
+  </si>
+  <si>
+    <t>Cuarto Nivel</t>
+  </si>
+  <si>
+    <t>Quinto Nivel</t>
+  </si>
+  <si>
+    <t>Sexto Nivel</t>
+  </si>
+  <si>
+    <t>Builders P</t>
+  </si>
+  <si>
+    <t>Builders S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lego P </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lego S </t>
   </si>
 </sst>
 </file>
@@ -125,13 +230,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,65 +260,19 @@
         <bgColor rgb="FFE2EFDA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -225,8 +283,122 @@
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -236,25 +408,41 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -265,63 +453,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -660,396 +871,1044 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="T2" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.69921875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="20.69921875" style="2"/>
-    <col min="3" max="3" width="20.69921875" style="6"/>
-    <col min="4" max="4" width="20.69921875" style="3"/>
-    <col min="5" max="8" width="20.69921875" style="2"/>
-    <col min="9" max="9" width="20.69921875" style="4"/>
-    <col min="10" max="11" width="20.69921875" style="2"/>
-    <col min="12" max="13" width="20.69921875" style="6"/>
-    <col min="14" max="15" width="20.69921875" style="2"/>
-    <col min="16" max="16" width="20.69921875" style="4"/>
-    <col min="17" max="20" width="20.69921875" style="2"/>
-    <col min="21" max="21" width="20.69921875" style="4"/>
+    <col min="1" max="1" width="31.59765625" customWidth="1"/>
+    <col min="2" max="2" width="26.69921875" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.09765625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="29.8984375" customWidth="1"/>
+    <col min="6" max="6" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.59765625" customWidth="1"/>
+    <col min="10" max="10" width="25.69921875" customWidth="1"/>
+    <col min="11" max="11" width="22.59765625" customWidth="1"/>
+    <col min="12" max="12" width="18.59765625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="17.296875" style="13" customWidth="1"/>
+    <col min="14" max="15" width="28" customWidth="1"/>
+    <col min="16" max="16" width="26.8984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.69921875" customWidth="1"/>
+    <col min="18" max="18" width="19.09765625" customWidth="1"/>
+    <col min="19" max="19" width="17.09765625" customWidth="1"/>
+    <col min="20" max="20" width="11.09765625" customWidth="1"/>
+    <col min="21" max="21" width="28.69921875" customWidth="1"/>
+    <col min="22" max="22" width="10.3984375" customWidth="1"/>
+    <col min="23" max="23" width="10" customWidth="1"/>
+    <col min="24" max="24" width="9.8984375" customWidth="1"/>
+    <col min="25" max="25" width="11.296875" customWidth="1"/>
+    <col min="26" max="26" width="9.69921875" customWidth="1"/>
+    <col min="27" max="27" width="31.3984375" customWidth="1"/>
+    <col min="28" max="28" width="25.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="28.8">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:27" ht="14.4">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="13"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="29"/>
+      <c r="AA1" s="27" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1">
-      <c r="A2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="1"/>
-      <c r="E3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="1"/>
-      <c r="E4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="P4" s="10"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="8"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="32"/>
+      <c r="Y2" s="10"/>
+      <c r="AA2" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="14.4">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="32"/>
+      <c r="Y3" s="10"/>
+      <c r="AA3" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="14.4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="18"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="32"/>
+      <c r="X4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="10"/>
+      <c r="AA4" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="E5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="1"/>
-      <c r="E6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="32"/>
+      <c r="X5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y5" s="10"/>
+      <c r="AA5" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="14.4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="32"/>
+      <c r="X6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y6" s="10"/>
+      <c r="AA6" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="E7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="1"/>
-      <c r="E8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="1"/>
-      <c r="E9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="P9" s="10"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="32"/>
+      <c r="X7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y7" s="10"/>
+      <c r="AA7" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="14.4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="32"/>
+      <c r="X8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y8" s="10"/>
+    </row>
+    <row r="9" spans="1:27" ht="14.4">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="32"/>
+      <c r="X9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y9" s="10"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="E10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="1"/>
-      <c r="E11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="32"/>
+      <c r="X10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y10" s="10"/>
+    </row>
+    <row r="11" spans="1:27" ht="14.4">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="32"/>
+      <c r="X11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y11" s="10"/>
+    </row>
+    <row r="12" spans="1:27" ht="14.4">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="32"/>
+      <c r="X12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y12" s="10"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1">
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-    </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="1"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="1"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="1"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-    </row>
-    <row r="17" spans="1:27">
-      <c r="A17" s="1"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-    </row>
-    <row r="18" spans="1:27">
-      <c r="A18" s="1"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-    </row>
-    <row r="19" spans="1:27">
-      <c r="A19" s="1"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-    </row>
-    <row r="20" spans="1:27">
-      <c r="A20" s="1"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-    </row>
-    <row r="21" spans="1:27">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:27">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:27">
-      <c r="A23" s="1"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="10"/>
-      <c r="W23" s="5"/>
-    </row>
-    <row r="24" spans="1:27">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:27">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:27">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:27">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:27">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:27">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:27">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:27">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:27">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="32"/>
+      <c r="X13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y13" s="10"/>
+    </row>
+    <row r="14" spans="1:27" ht="14.4">
+      <c r="A14" s="21"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="32"/>
+      <c r="X14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y14" s="10"/>
+    </row>
+    <row r="15" spans="1:27" ht="14.4">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="32"/>
+      <c r="X15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y15" s="10"/>
+    </row>
+    <row r="16" spans="1:27" ht="14.4">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="32"/>
+      <c r="X16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y16" s="10"/>
+    </row>
+    <row r="17" spans="1:25" ht="14.4">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="32"/>
+      <c r="X17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" s="10"/>
+    </row>
+    <row r="18" spans="1:25" ht="14.4">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="32"/>
+      <c r="X18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y18" s="10"/>
+    </row>
+    <row r="19" spans="1:25" ht="14.4">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="32"/>
+      <c r="X19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y19" s="10"/>
+    </row>
+    <row r="20" spans="1:25" ht="14.4">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="8"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="32"/>
+      <c r="X20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="14.4">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="39"/>
+      <c r="X21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="9"/>
+      <c r="X22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="23"/>
+      <c r="W23" s="10"/>
+      <c r="X23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="9"/>
+      <c r="X24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="9"/>
+      <c r="X25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="9"/>
+      <c r="X26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="9"/>
+      <c r="X27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="9"/>
+      <c r="X28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="9"/>
+      <c r="X29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="9"/>
+      <c r="X30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="9"/>
+      <c r="X31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="9"/>
+      <c r="X32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="9"/>
+      <c r="X33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="9"/>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="11"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="5"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="X2:XFD2 A5:P5 Q2" name="Rango1"/>
+    <protectedRange sqref="X2:XFD2 A5:B5 Q2 E5 N5:O5 I5:K5" name="Rango1"/>
   </protectedRanges>
-  <mergeCells count="6">
-    <mergeCell ref="Y17:Y19"/>
-    <mergeCell ref="Y13:Y16"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Y7:Y9"/>
-    <mergeCell ref="Y10:Y12"/>
-  </mergeCells>
-  <dataValidations count="11">
+  <dataValidations count="12">
     <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="El carnet de identidad debe tener mas de 7 digitos" sqref="V1 S1 L1 C1">
       <formula1>7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O14:O33 P49:P1048576 P43:P45 P34:P37 O45 O1:O11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576 P49:P1048576 P43:P45 P34:P37">
       <formula1>$AA$2:$AA$7</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="El estudiante debe haber nacido despues de 2020" sqref="D14:D37 D43:D45 D49:D1048576 D1:D11">
+    <dataValidation type="date" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="El estudiante debe haber nacido despues de 2020" sqref="D1">
       <formula1>43831</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="CI duplicado" error="No se permiten CI duplicados" promptTitle="Correo Electronico" sqref="E14:E37 E43:E45 E49:E1048576 E1:E11"/>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M14:M37 M43:M45 M49:M1048576 M2:M11">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M49:M1048576 M43:M45 T2:T21 M2:M37">
       <formula1>8</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:F37 F43:F45 F49:F1048576 F1:F11">
+    <dataValidation type="list" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F43:F45 F49:F1048576 F2:F37">
       <formula1>"Chuquisaca ,La Paz ,Cochabamba ,Oruro ,Potosí ,Tarija ,Santa Cruz ,Beni ,Pando"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O34:O37 O43:O45 O49:O1048576 O2:O11">
-      <formula1>"Madre, Padre, Tutor"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P11"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
-      <formula1>"3ro de Primaria, 4to de Primaria, 5to de Primaria, 1ro de Secundaria, 2do de Secundaria, 3ro de Secundaria, 4to de Secundaria, 5to de Secundaria, 6to de Secundaria"</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="El carnet de identidad debe tener mas de 7 digitos" sqref="L2:L1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 O1:P1 P3 P5:P11"/>
+    <dataValidation type="textLength" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="El carnet de identidad debe tener mas de 7 digitos" sqref="C2:C21 S2:S21 L2:L1048576">
       <formula1>7</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576 S2:S1048576">
+    <dataValidation type="textLength" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C1048576 S22:S1048576">
       <formula1>7</formula1>
     </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fecha invalida" error="El olimpista debe haber nacido entre las fechas 01/01/2007 y 01/01/2020_x000a_Este campo solo acepta fecha en numeral." sqref="D2:D1048576">
+      <formula1>39083</formula1>
+      <formula2>43831</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
+      <formula1>"1ro de Primaria, 2do de Primaria, 3ro de Primaria, 4to de Primaria, 5to de Primaria, 1ro de Secundaria, 2do de Secundaria, 3ro de Secundaria, 4to de Secundaria, 5to de Secundaria, 6to de Secundaria"</formula1>
+    </dataValidation>
+    <dataValidation operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
